--- a/Code/Results/Cases/Case_7_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_38/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.796859592516199</v>
+        <v>0.8389326503653081</v>
       </c>
       <c r="C2">
-        <v>0.3452315772268548</v>
+        <v>0.08233854604631574</v>
       </c>
       <c r="D2">
-        <v>0.07819576547352369</v>
+        <v>0.07471731867362053</v>
       </c>
       <c r="E2">
-        <v>0.01689595917540387</v>
+        <v>0.02101409618249583</v>
       </c>
       <c r="F2">
-        <v>6.959799074244359</v>
+        <v>7.34634467526385</v>
       </c>
       <c r="G2">
-        <v>0.0008326562425609573</v>
+        <v>0.0008678143617829385</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1644833517330966</v>
+        <v>0.2005816220537184</v>
       </c>
       <c r="K2">
-        <v>0.4738286152292801</v>
+        <v>0.8297209819120042</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3908281968421718</v>
+        <v>0.2030724056666777</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.558024876794121</v>
+        <v>0.7354390354816189</v>
       </c>
       <c r="C3">
-        <v>0.2960260253902049</v>
+        <v>0.07083864836148734</v>
       </c>
       <c r="D3">
-        <v>0.06725530464302665</v>
+        <v>0.06502190434819255</v>
       </c>
       <c r="E3">
-        <v>0.01688347429551396</v>
+        <v>0.02011495062325785</v>
       </c>
       <c r="F3">
-        <v>6.258449158020198</v>
+        <v>6.672050403578197</v>
       </c>
       <c r="G3">
-        <v>0.0008432043627005373</v>
+        <v>0.0008764800951410089</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1514610950292834</v>
+        <v>0.1843690507967821</v>
       </c>
       <c r="K3">
-        <v>0.4097331631452548</v>
+        <v>0.72515000082592</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3421710381986216</v>
+        <v>0.1802353669858512</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.415603667685616</v>
+        <v>0.6737412075623297</v>
       </c>
       <c r="C4">
-        <v>0.2668010044367293</v>
+        <v>0.06407654582096711</v>
       </c>
       <c r="D4">
-        <v>0.06069013306441207</v>
+        <v>0.05917770917530163</v>
       </c>
       <c r="E4">
-        <v>0.0169152901980949</v>
+        <v>0.01963009950254957</v>
       </c>
       <c r="F4">
-        <v>5.837816210048061</v>
+        <v>6.264671540785656</v>
       </c>
       <c r="G4">
-        <v>0.0008498242349671955</v>
+        <v>0.0008819362381389251</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1436911358757129</v>
+        <v>0.1746302312603447</v>
       </c>
       <c r="K4">
-        <v>0.3715475173024174</v>
+        <v>0.6629608444866335</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3133278639176709</v>
+        <v>0.1667606912480082</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.358497612669936</v>
+        <v>0.6490160172120625</v>
       </c>
       <c r="C5">
-        <v>0.2551074100358335</v>
+        <v>0.06138786102155791</v>
       </c>
       <c r="D5">
-        <v>0.05804667062191271</v>
+        <v>0.05681855668634483</v>
       </c>
       <c r="E5">
-        <v>0.01693781849790721</v>
+        <v>0.01944848787434594</v>
       </c>
       <c r="F5">
-        <v>5.668576736384694</v>
+        <v>6.10010264876928</v>
       </c>
       <c r="G5">
-        <v>0.0008525606627231507</v>
+        <v>0.0008841954020692398</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.140574906790043</v>
+        <v>0.1707099977042787</v>
       </c>
       <c r="K5">
-        <v>0.3562439258100625</v>
+        <v>0.6380733191168417</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3018046054890391</v>
+        <v>0.1613947909649873</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.34906790374157</v>
+        <v>0.6449343029934482</v>
       </c>
       <c r="C6">
-        <v>0.253177849407308</v>
+        <v>0.06094522249355805</v>
       </c>
       <c r="D6">
-        <v>0.05760947665980609</v>
+        <v>0.05642803673679708</v>
       </c>
       <c r="E6">
-        <v>0.0169421269320349</v>
+        <v>0.01941927003351296</v>
       </c>
       <c r="F6">
-        <v>5.640596436078454</v>
+        <v>6.072856826500271</v>
       </c>
       <c r="G6">
-        <v>0.0008530174619648921</v>
+        <v>0.0008845727407588393</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1400603016919888</v>
+        <v>0.1700618081773939</v>
       </c>
       <c r="K6">
-        <v>0.3537173196775782</v>
+        <v>0.6339668029421546</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2999043089417697</v>
+        <v>0.1605110000911729</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.414829905779982</v>
+        <v>0.6734061256716473</v>
       </c>
       <c r="C7">
-        <v>0.2666424670189258</v>
+        <v>0.06404002463420966</v>
       </c>
       <c r="D7">
-        <v>0.06065436126757362</v>
+        <v>0.05914580837793437</v>
       </c>
       <c r="E7">
-        <v>0.01691555575693382</v>
+        <v>0.01962758674536147</v>
       </c>
       <c r="F7">
-        <v>5.8355254221878</v>
+        <v>6.262446560103911</v>
       </c>
       <c r="G7">
-        <v>0.0008498609789368571</v>
+        <v>0.0008819665591513259</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.143648914856648</v>
+        <v>0.1745771729686538</v>
       </c>
       <c r="K7">
-        <v>0.3713401313567886</v>
+        <v>0.6626234260343864</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3131715599293514</v>
+        <v>0.1666878339016868</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.713549742654919</v>
+        <v>0.8028347021424054</v>
       </c>
       <c r="C8">
-        <v>0.3280399111229997</v>
+        <v>0.07830615383576855</v>
       </c>
       <c r="D8">
-        <v>0.07438782459262683</v>
+        <v>0.0713486377273469</v>
       </c>
       <c r="E8">
-        <v>0.01688322792870789</v>
+        <v>0.02068952842134486</v>
       </c>
       <c r="F8">
-        <v>6.71568139351902</v>
+        <v>7.112326139663622</v>
       </c>
       <c r="G8">
-        <v>0.0008362652339805923</v>
+        <v>0.0008707752858685414</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1599421898160998</v>
+        <v>0.1949430730660637</v>
       </c>
       <c r="K8">
-        <v>0.4514625414742142</v>
+        <v>0.7932131289140329</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3738184368264186</v>
+        <v>0.1950767183893092</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.339556689127164</v>
+        <v>1.073684562510692</v>
       </c>
       <c r="C9">
-        <v>0.4579499089205967</v>
+        <v>0.1090687813920113</v>
       </c>
       <c r="D9">
-        <v>0.1028542846443656</v>
+        <v>0.09638892496458595</v>
       </c>
       <c r="E9">
-        <v>0.01715186766378984</v>
+        <v>0.02335234594418267</v>
       </c>
       <c r="F9">
-        <v>8.538480958484769</v>
+        <v>8.843052021523818</v>
       </c>
       <c r="G9">
-        <v>0.0008106011314137682</v>
+        <v>0.0008498182734766254</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1940254562389256</v>
+        <v>0.2368847901186939</v>
       </c>
       <c r="K9">
-        <v>0.6197437272160471</v>
+        <v>1.06793968219381</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5024333846635471</v>
+        <v>0.2557179084533878</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.834837993081692</v>
+        <v>1.28680165336192</v>
       </c>
       <c r="C10">
-        <v>0.5619203575054996</v>
+        <v>0.1340256997541616</v>
       </c>
       <c r="D10">
-        <v>0.1252292707357725</v>
+        <v>0.1158478375659584</v>
       </c>
       <c r="E10">
-        <v>0.01758199214736855</v>
+        <v>0.02573611869734549</v>
       </c>
       <c r="F10">
-        <v>9.964796480287021</v>
+        <v>10.17154239892005</v>
       </c>
       <c r="G10">
-        <v>0.0007921296390544602</v>
+        <v>0.0008348922225810335</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.220913952802853</v>
+        <v>0.2693779225298272</v>
       </c>
       <c r="K10">
-        <v>0.7532364864425745</v>
+        <v>1.285278475589223</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6052509438217299</v>
+        <v>0.3042871976352188</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.070766668017427</v>
+        <v>1.387788194934359</v>
       </c>
       <c r="C11">
-        <v>0.611817188114486</v>
+        <v>0.1460630223839843</v>
       </c>
       <c r="D11">
-        <v>0.1358666150714498</v>
+        <v>0.1250296439690999</v>
       </c>
       <c r="E11">
-        <v>0.0178364103095614</v>
+        <v>0.0269324369644508</v>
       </c>
       <c r="F11">
-        <v>10.64011934823196</v>
+        <v>10.7928497223549</v>
       </c>
       <c r="G11">
-        <v>0.0007837498882211634</v>
+        <v>0.0008281705742944843</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2336944530103438</v>
+        <v>0.2846417823774061</v>
       </c>
       <c r="K11">
-        <v>0.8169351340518745</v>
+        <v>1.388590010699744</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6544892772646946</v>
+        <v>0.3275106021046028</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.161930443505071</v>
+        <v>1.42670333914046</v>
       </c>
       <c r="C12">
-        <v>0.6311617816390935</v>
+        <v>0.1507365086355037</v>
       </c>
       <c r="D12">
-        <v>0.1399748682175499</v>
+        <v>0.1285634959392183</v>
       </c>
       <c r="E12">
-        <v>0.01794202568353143</v>
+        <v>0.02740339261279523</v>
       </c>
       <c r="F12">
-        <v>10.90041015577719</v>
+        <v>11.03100172511898</v>
       </c>
       <c r="G12">
-        <v>0.0007805740154797032</v>
+        <v>0.0008256318674314006</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2386277346038952</v>
+        <v>0.2905024559348135</v>
       </c>
       <c r="K12">
-        <v>0.841567396376945</v>
+        <v>1.428454307157494</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6735555140890952</v>
+        <v>0.336491833654236</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.14221036867832</v>
+        <v>1.418290684120564</v>
       </c>
       <c r="C13">
-        <v>0.6269742171451185</v>
+        <v>0.1497245714258497</v>
       </c>
       <c r="D13">
-        <v>0.139086267625018</v>
+        <v>0.1277997227182368</v>
       </c>
       <c r="E13">
-        <v>0.01791885247918223</v>
+        <v>0.02730113416835245</v>
       </c>
       <c r="F13">
-        <v>10.84413568030686</v>
+        <v>10.97957594150699</v>
       </c>
       <c r="G13">
-        <v>0.0007812582196840473</v>
+        <v>0.0008261783833471118</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.237560841607646</v>
+        <v>0.2892364771360434</v>
       </c>
       <c r="K13">
-        <v>0.8362381816463937</v>
+        <v>1.419833992538571</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6694293670226088</v>
+        <v>0.3345488165773176</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.07822836141537</v>
+        <v>1.390975686549524</v>
       </c>
       <c r="C14">
-        <v>0.6133991819243079</v>
+        <v>0.1464450987977983</v>
       </c>
       <c r="D14">
-        <v>0.136202908127018</v>
+        <v>0.1253191770046413</v>
       </c>
       <c r="E14">
-        <v>0.01784490828934615</v>
+        <v>0.02697081186752825</v>
       </c>
       <c r="F14">
-        <v>10.66143746272854</v>
+        <v>10.81238228162351</v>
       </c>
       <c r="G14">
-        <v>0.0007834886978465794</v>
+        <v>0.0008279616001960568</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.234098348620094</v>
+        <v>0.2851222592114624</v>
       </c>
       <c r="K14">
-        <v>0.8189508729287525</v>
+        <v>1.39185414584361</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.656049015216901</v>
+        <v>0.3282455914454445</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.039284542530027</v>
+        <v>1.374335177959097</v>
       </c>
       <c r="C15">
-        <v>0.6051451372075292</v>
+        <v>0.1444518719704746</v>
       </c>
       <c r="D15">
-        <v>0.1344476621316062</v>
+        <v>0.1238074836466723</v>
       </c>
       <c r="E15">
-        <v>0.0178008497595421</v>
+        <v>0.02677087459771421</v>
       </c>
       <c r="F15">
-        <v>10.55014795249451</v>
+        <v>10.71035984366165</v>
       </c>
       <c r="G15">
-        <v>0.0007848543922020417</v>
+        <v>0.0008290546343938837</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2319901364578456</v>
+        <v>0.282613033043063</v>
       </c>
       <c r="K15">
-        <v>0.8084311718252764</v>
+        <v>1.374815689830513</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6479101174852744</v>
+        <v>0.3244098317747302</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.819657352462855</v>
+        <v>1.280290878940349</v>
       </c>
       <c r="C16">
-        <v>0.5587179839004079</v>
+        <v>0.1332541851378011</v>
       </c>
       <c r="D16">
-        <v>0.1245444840206034</v>
+        <v>0.115255204085706</v>
       </c>
       <c r="E16">
-        <v>0.01756661494806799</v>
+        <v>0.02566034056331645</v>
       </c>
       <c r="F16">
-        <v>9.921256987444906</v>
+        <v>10.13131600367814</v>
       </c>
       <c r="G16">
-        <v>0.0007926772522644955</v>
+        <v>0.0008353326091813906</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2200909594934117</v>
+        <v>0.2683910277296491</v>
       </c>
       <c r="K16">
-        <v>0.7491402564282836</v>
+        <v>1.278624763320948</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6020881241152978</v>
+        <v>0.3027942463441633</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.687838590980391</v>
+        <v>1.223694452459483</v>
       </c>
       <c r="C17">
-        <v>0.5309522533428037</v>
+        <v>0.1265712574226683</v>
       </c>
       <c r="D17">
-        <v>0.1185960691496319</v>
+        <v>0.1100995008136039</v>
       </c>
       <c r="E17">
-        <v>0.01743851214765435</v>
+        <v>0.02500896559782184</v>
       </c>
       <c r="F17">
-        <v>9.542733509758563</v>
+        <v>9.780730957388585</v>
       </c>
       <c r="G17">
-        <v>0.0007974782834349065</v>
+        <v>0.0008391992919364649</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.212941457577621</v>
+        <v>0.2597974032308201</v>
       </c>
       <c r="K17">
-        <v>0.713583508875054</v>
+        <v>1.220822073831613</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5746530363292308</v>
+        <v>0.2898394841332177</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.612999437702285</v>
+        <v>1.191515557797089</v>
       </c>
       <c r="C18">
-        <v>0.5152216230671627</v>
+        <v>0.1227906857085799</v>
       </c>
       <c r="D18">
-        <v>0.1152169154502332</v>
+        <v>0.1071644894747479</v>
       </c>
       <c r="E18">
-        <v>0.01737030420046004</v>
+        <v>0.02464472345156743</v>
       </c>
       <c r="F18">
-        <v>9.327458043513019</v>
+        <v>9.580651859136594</v>
       </c>
       <c r="G18">
-        <v>0.000800242285580079</v>
+        <v>0.0008414299459203812</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2088799007297268</v>
+        <v>0.2548992504786014</v>
       </c>
       <c r="K18">
-        <v>0.6934061889161711</v>
+        <v>1.187986723848525</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5591006593929961</v>
+        <v>0.2824928526396988</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.587820223357994</v>
+        <v>1.180681915134841</v>
       </c>
       <c r="C19">
-        <v>0.5099345360230245</v>
+        <v>0.1215210420458845</v>
       </c>
       <c r="D19">
-        <v>0.114079649504788</v>
+        <v>0.1061756995464975</v>
       </c>
       <c r="E19">
-        <v>0.01734812727662849</v>
+        <v>0.02452313334228329</v>
       </c>
       <c r="F19">
-        <v>9.254967801965819</v>
+        <v>9.51316545223915</v>
       </c>
       <c r="G19">
-        <v>0.0008011787373356505</v>
+        <v>0.0008421864381251804</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2075130175327189</v>
+        <v>0.2532481748503557</v>
       </c>
       <c r="K19">
-        <v>0.6866192334244303</v>
+        <v>1.176936936592085</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.553872140572409</v>
+        <v>0.2800226766669383</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.701767568240484</v>
+        <v>1.229679909975914</v>
       </c>
       <c r="C20">
-        <v>0.5338826702356698</v>
+        <v>0.1272760039275198</v>
       </c>
       <c r="D20">
-        <v>0.1192248237707219</v>
+        <v>0.1106451219029267</v>
       </c>
       <c r="E20">
-        <v>0.0174515768943948</v>
+        <v>0.02507721546719921</v>
       </c>
       <c r="F20">
-        <v>9.58277026540776</v>
+        <v>9.817886054997757</v>
       </c>
       <c r="G20">
-        <v>0.00079696697888323</v>
+        <v>0.000838787011413584</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2136971938069152</v>
+        <v>0.2607075092882525</v>
       </c>
       <c r="K20">
-        <v>0.7173396694431915</v>
+        <v>1.226932002615968</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5775495534969721</v>
+        <v>0.291207546215837</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.096969350068662</v>
+        <v>1.398979674047439</v>
       </c>
       <c r="C21">
-        <v>0.6173736193400146</v>
+        <v>0.1474050863362351</v>
       </c>
       <c r="D21">
-        <v>0.1370475214703504</v>
+        <v>0.1260461474308698</v>
       </c>
       <c r="E21">
-        <v>0.0178663685648015</v>
+        <v>0.02706733284012941</v>
       </c>
       <c r="F21">
-        <v>10.71496995242853</v>
+        <v>10.86140928763217</v>
       </c>
       <c r="G21">
-        <v>0.0007828336766471198</v>
+        <v>0.0008274376735249098</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2351126976521059</v>
+        <v>0.2863284213033808</v>
       </c>
       <c r="K21">
-        <v>0.8240139672016653</v>
+        <v>1.400051458000974</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6599671448387525</v>
+        <v>0.3300917117365643</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.366057351774089</v>
+        <v>1.513606646972164</v>
       </c>
       <c r="C22">
-        <v>0.6746070945879126</v>
+        <v>0.1612418165362044</v>
       </c>
       <c r="D22">
-        <v>0.1491711148557897</v>
+        <v>0.1364486102145719</v>
       </c>
       <c r="E22">
-        <v>0.01819199699232499</v>
+        <v>0.02847357719276467</v>
       </c>
       <c r="F22">
-        <v>11.48195782241635</v>
+        <v>11.56042338375767</v>
       </c>
       <c r="G22">
-        <v>0.0007735778037759328</v>
+        <v>0.0008200571105762258</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2496631517543619</v>
+        <v>0.3035491587752688</v>
       </c>
       <c r="K22">
-        <v>0.896760243598834</v>
+        <v>1.517581574125614</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.7163238785899537</v>
+        <v>0.3566089617222019</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.221340101221813</v>
+        <v>1.452029760694131</v>
       </c>
       <c r="C23">
-        <v>0.6437876054244782</v>
+        <v>0.1537883436666192</v>
       </c>
       <c r="D23">
-        <v>0.1426516900857422</v>
+        <v>0.13086231775317</v>
       </c>
       <c r="E23">
-        <v>0.01801290229104602</v>
+        <v>0.02771270091642641</v>
       </c>
       <c r="F23">
-        <v>11.0698454326199</v>
+        <v>11.18563036329169</v>
       </c>
       <c r="G23">
-        <v>0.000778521813250375</v>
+        <v>0.0008239940446785075</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2418410694955213</v>
+        <v>0.2943104801256453</v>
       </c>
       <c r="K23">
-        <v>0.8576254249325359</v>
+        <v>1.454414070300317</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.685992174388069</v>
+        <v>0.3423460942421173</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.695467355099709</v>
+        <v>1.226972772840668</v>
       </c>
       <c r="C24">
-        <v>0.5325571108635074</v>
+        <v>0.12695719761102</v>
       </c>
       <c r="D24">
-        <v>0.118940438163861</v>
+        <v>0.1103983567574858</v>
       </c>
       <c r="E24">
-        <v>0.01744565343815019</v>
+        <v>0.02504632793560546</v>
       </c>
       <c r="F24">
-        <v>9.564662406228194</v>
+        <v>9.801083667330971</v>
       </c>
       <c r="G24">
-        <v>0.0007971981274421669</v>
+        <v>0.0008389733791924145</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2133553745693391</v>
+        <v>0.260295918985733</v>
       </c>
       <c r="K24">
-        <v>0.7156406907930446</v>
+        <v>1.224168477420704</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5762393563610644</v>
+        <v>0.2905887318486506</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.164874869881032</v>
+        <v>0.9982287441452513</v>
       </c>
       <c r="C25">
-        <v>0.4215308264979001</v>
+        <v>0.1003854737562335</v>
       </c>
       <c r="D25">
-        <v>0.09493922926029086</v>
+        <v>0.0894588296904999</v>
       </c>
       <c r="E25">
-        <v>0.01704077747447386</v>
+        <v>0.02256277339178503</v>
       </c>
       <c r="F25">
-        <v>8.032334943131985</v>
+        <v>8.366258362696811</v>
       </c>
       <c r="G25">
-        <v>0.0008174584914843683</v>
+        <v>0.0008553945809942204</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1845247782759785</v>
+        <v>0.2252797970474205</v>
       </c>
       <c r="K25">
-        <v>0.5727359697642669</v>
+        <v>0.9912259957243066</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4663740345672807</v>
+        <v>0.2386859327771944</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_38/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8389326503653081</v>
+        <v>0.7871208915251202</v>
       </c>
       <c r="C2">
-        <v>0.08233854604631574</v>
+        <v>0.1600787996387112</v>
       </c>
       <c r="D2">
-        <v>0.07471731867362053</v>
+        <v>0.0900566609826825</v>
       </c>
       <c r="E2">
-        <v>0.02101409618249583</v>
+        <v>0.08896666137188092</v>
       </c>
       <c r="F2">
-        <v>7.34634467526385</v>
+        <v>1.262260253046378</v>
       </c>
       <c r="G2">
-        <v>0.0008678143617829385</v>
+        <v>0.9489574079990177</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.008227672109910239</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2005816220537184</v>
+        <v>0.6702074150170745</v>
       </c>
       <c r="K2">
-        <v>0.8297209819120042</v>
+        <v>0.6343458177232293</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1150622951468847</v>
       </c>
       <c r="M2">
-        <v>0.2030724056666777</v>
+        <v>0.9127116402941624</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.310668665293008</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7354390354816189</v>
+        <v>0.6841328229732824</v>
       </c>
       <c r="C3">
-        <v>0.07083864836148734</v>
+        <v>0.1390849767253997</v>
       </c>
       <c r="D3">
-        <v>0.06502190434819255</v>
+        <v>0.07893326568201786</v>
       </c>
       <c r="E3">
-        <v>0.02011495062325785</v>
+        <v>0.07906100373643454</v>
       </c>
       <c r="F3">
-        <v>6.672050403578197</v>
+        <v>1.203369451901665</v>
       </c>
       <c r="G3">
-        <v>0.0008764800951410089</v>
+        <v>0.9072822334440644</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.01148576527243608</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1843690507967821</v>
+        <v>0.6562499642352009</v>
       </c>
       <c r="K3">
-        <v>0.72515000082592</v>
+        <v>0.6226736424518649</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1033475150674406</v>
       </c>
       <c r="M3">
-        <v>0.1802353669858512</v>
+        <v>0.7932142260854107</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.2708653063024116</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6737412075623297</v>
+        <v>0.6210070995759054</v>
       </c>
       <c r="C4">
-        <v>0.06407654582096711</v>
+        <v>0.1262263974735873</v>
       </c>
       <c r="D4">
-        <v>0.05917770917530163</v>
+        <v>0.07211123064440983</v>
       </c>
       <c r="E4">
-        <v>0.01963009950254957</v>
+        <v>0.07298510606090858</v>
       </c>
       <c r="F4">
-        <v>6.264671540785656</v>
+        <v>1.168338762005746</v>
       </c>
       <c r="G4">
-        <v>0.0008819362381389251</v>
+        <v>0.8827740724628939</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.01383547153352796</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1746302312603447</v>
+        <v>0.6483155781982077</v>
       </c>
       <c r="K4">
-        <v>0.6629608444866335</v>
+        <v>0.6162007953615998</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.09615276878691503</v>
       </c>
       <c r="M4">
-        <v>0.1667606912480082</v>
+        <v>0.719982899456781</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.2464646398932828</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6490160172120625</v>
+        <v>0.5953013481884568</v>
       </c>
       <c r="C5">
-        <v>0.06138786102155791</v>
+        <v>0.1209922405277695</v>
       </c>
       <c r="D5">
-        <v>0.05681855668634483</v>
+        <v>0.0693321793295425</v>
       </c>
       <c r="E5">
-        <v>0.01944848787434594</v>
+        <v>0.07050938708476906</v>
       </c>
       <c r="F5">
-        <v>6.10010264876928</v>
+        <v>1.154332151129978</v>
       </c>
       <c r="G5">
-        <v>0.0008841954020692398</v>
+        <v>0.8730438990523623</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.01487708342848804</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1707099977042787</v>
+        <v>0.6452354897818537</v>
       </c>
       <c r="K5">
-        <v>0.6380733191168417</v>
+        <v>0.6137300170020907</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.09321855267030799</v>
       </c>
       <c r="M5">
-        <v>0.1613947909649873</v>
+        <v>0.6901649921105104</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.236527682366507</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6449343029934482</v>
+        <v>0.5910337913419426</v>
       </c>
       <c r="C6">
-        <v>0.06094522249355805</v>
+        <v>0.1201234035266765</v>
       </c>
       <c r="D6">
-        <v>0.05642803673679708</v>
+        <v>0.06887075205329296</v>
       </c>
       <c r="E6">
-        <v>0.01941927003351296</v>
+        <v>0.07009827449250139</v>
       </c>
       <c r="F6">
-        <v>6.072856826500271</v>
+        <v>1.15202216376251</v>
       </c>
       <c r="G6">
-        <v>0.0008845727407588393</v>
+        <v>0.8714433251069806</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.01505501480930438</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1700618081773939</v>
+        <v>0.6447331123216458</v>
       </c>
       <c r="K6">
-        <v>0.6339668029421546</v>
+        <v>0.613329616405565</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.09273113719452653</v>
       </c>
       <c r="M6">
-        <v>0.1605110000911729</v>
+        <v>0.6852149217037322</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.2348779603129962</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6734061256716473</v>
+        <v>0.6206603594744422</v>
       </c>
       <c r="C7">
-        <v>0.06404002463420966</v>
+        <v>0.1261557870028582</v>
       </c>
       <c r="D7">
-        <v>0.05914580837793437</v>
+        <v>0.07207374864826477</v>
       </c>
       <c r="E7">
-        <v>0.01962758674536147</v>
+        <v>0.07295171828160463</v>
       </c>
       <c r="F7">
-        <v>6.262446560103911</v>
+        <v>1.16814879551184</v>
       </c>
       <c r="G7">
-        <v>0.0008819665591513259</v>
+        <v>0.8826418257651767</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.01384918342479485</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1745771729686538</v>
+        <v>0.6482734270537946</v>
       </c>
       <c r="K7">
-        <v>0.6626234260343864</v>
+        <v>0.6161668072688542</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.09611320860457084</v>
       </c>
       <c r="M7">
-        <v>0.1666878339016868</v>
+        <v>0.7195806796695621</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.2463306043882767</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8028347021424054</v>
+        <v>0.7515822935805545</v>
       </c>
       <c r="C8">
-        <v>0.07830615383576855</v>
+        <v>0.1528322050905189</v>
       </c>
       <c r="D8">
-        <v>0.0713486377273469</v>
+        <v>0.08621909496135061</v>
       </c>
       <c r="E8">
-        <v>0.02068952842134486</v>
+        <v>0.08554909358069196</v>
       </c>
       <c r="F8">
-        <v>7.112326139663622</v>
+        <v>1.241711164826341</v>
       </c>
       <c r="G8">
-        <v>0.0008707752858685414</v>
+        <v>0.9343545130315221</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.009276291308748894</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1949430730660637</v>
+        <v>0.6652589192887035</v>
       </c>
       <c r="K8">
-        <v>0.7932131289140329</v>
+        <v>0.6301725844151633</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1110222826978173</v>
       </c>
       <c r="M8">
-        <v>0.1950767183893092</v>
+        <v>0.871472970833878</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.2969344107819794</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.073684562510692</v>
+        <v>1.009632162489282</v>
       </c>
       <c r="C9">
-        <v>0.1090687813920113</v>
+        <v>0.2055022212293522</v>
       </c>
       <c r="D9">
-        <v>0.09638892496458595</v>
+        <v>0.1140677664855616</v>
       </c>
       <c r="E9">
-        <v>0.02335234594418267</v>
+        <v>0.1103647873089493</v>
       </c>
       <c r="F9">
-        <v>8.843052021523818</v>
+        <v>1.395644268617929</v>
       </c>
       <c r="G9">
-        <v>0.0008498182734766254</v>
+        <v>1.045035811214959</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.003255150071673651</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2368847901186939</v>
+        <v>0.7039245771382099</v>
       </c>
       <c r="K9">
-        <v>1.06793968219381</v>
+        <v>0.6635026717915125</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1403324963066197</v>
       </c>
       <c r="M9">
-        <v>0.2557179084533878</v>
+        <v>1.17098561281415</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.3966351435932651</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.28680165336192</v>
+        <v>1.203616750316797</v>
       </c>
       <c r="C10">
-        <v>0.1340256997541616</v>
+        <v>0.2432509513913743</v>
       </c>
       <c r="D10">
-        <v>0.1158478375659584</v>
+        <v>0.1318316846683558</v>
       </c>
       <c r="E10">
-        <v>0.02573611869734549</v>
+        <v>0.1232140273737201</v>
       </c>
       <c r="F10">
-        <v>10.17154239892005</v>
+        <v>1.489280437891892</v>
       </c>
       <c r="G10">
-        <v>0.0008348922225810335</v>
+        <v>1.112359257665901</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.001159303841390624</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2693779225298272</v>
+        <v>0.7256453727622585</v>
       </c>
       <c r="K10">
-        <v>1.285278475589223</v>
+        <v>0.6803545075072037</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1535395389078005</v>
       </c>
       <c r="M10">
-        <v>0.3042871976352188</v>
+        <v>1.393601263297995</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.4622987610909846</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.387788194934359</v>
+        <v>1.318642227835824</v>
       </c>
       <c r="C11">
-        <v>0.1460630223839843</v>
+        <v>0.2489313385862317</v>
       </c>
       <c r="D11">
-        <v>0.1250296439690999</v>
+        <v>0.1161123025376156</v>
       </c>
       <c r="E11">
-        <v>0.0269324369644508</v>
+        <v>0.08629205580190558</v>
       </c>
       <c r="F11">
-        <v>10.7928497223549</v>
+        <v>1.311846777341486</v>
       </c>
       <c r="G11">
-        <v>0.0008281705742944843</v>
+        <v>0.9714489019957853</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01968010119149</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2846417823774061</v>
+        <v>0.649013402194484</v>
       </c>
       <c r="K11">
-        <v>1.388590010699744</v>
+        <v>0.5915562064022453</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.09820605818088524</v>
       </c>
       <c r="M11">
-        <v>0.3275106021046028</v>
+        <v>1.502232764918347</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.4232714128022295</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.42670333914046</v>
+        <v>1.375970748875119</v>
       </c>
       <c r="C12">
-        <v>0.1507365086355037</v>
+        <v>0.2456083664378355</v>
       </c>
       <c r="D12">
-        <v>0.1285634959392183</v>
+        <v>0.1001199933784989</v>
       </c>
       <c r="E12">
-        <v>0.02740339261279523</v>
+        <v>0.05962304547580111</v>
       </c>
       <c r="F12">
-        <v>11.03100172511898</v>
+        <v>1.151580717942991</v>
       </c>
       <c r="G12">
-        <v>0.0008256318674314006</v>
+        <v>0.8457965281688757</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05850361785891778</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2905024559348135</v>
+        <v>0.5831815462870651</v>
       </c>
       <c r="K12">
-        <v>1.428454307157494</v>
+        <v>0.5183188508029701</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.06557240625147287</v>
       </c>
       <c r="M12">
-        <v>0.336491833654236</v>
+        <v>1.547269331786566</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.3782825968905357</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.418290684120564</v>
+        <v>1.391581668096023</v>
       </c>
       <c r="C13">
-        <v>0.1497245714258497</v>
+        <v>0.2351901957951696</v>
       </c>
       <c r="D13">
-        <v>0.1277997227182368</v>
+        <v>0.08310219588801004</v>
       </c>
       <c r="E13">
-        <v>0.02730113416835245</v>
+        <v>0.03938366177301056</v>
       </c>
       <c r="F13">
-        <v>10.97957594150699</v>
+        <v>0.9952767637521021</v>
       </c>
       <c r="G13">
-        <v>0.0008261783833471118</v>
+        <v>0.7244069288548758</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1146102652857479</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2892364771360434</v>
+        <v>0.5216498753863448</v>
       </c>
       <c r="K13">
-        <v>1.419833992538571</v>
+        <v>0.4525045231598028</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.04845402864222237</v>
       </c>
       <c r="M13">
-        <v>0.3345488165773176</v>
+        <v>1.545469828766045</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.3264895535149535</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.390975686549524</v>
+        <v>1.383618033669705</v>
       </c>
       <c r="C14">
-        <v>0.1464450987977983</v>
+        <v>0.2247535422230413</v>
       </c>
       <c r="D14">
-        <v>0.1253191770046413</v>
+        <v>0.07098980671300836</v>
       </c>
       <c r="E14">
-        <v>0.02697081186752825</v>
+        <v>0.02919682035708338</v>
       </c>
       <c r="F14">
-        <v>10.81238228162351</v>
+        <v>0.8897811958121693</v>
       </c>
       <c r="G14">
-        <v>0.0008279616001960568</v>
+        <v>0.6430114895848362</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1643242420547324</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2851222592114624</v>
+        <v>0.4812732327771272</v>
       </c>
       <c r="K14">
-        <v>1.39185414584361</v>
+        <v>0.4107611507734816</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.04574769896230624</v>
       </c>
       <c r="M14">
-        <v>0.3282455914454445</v>
+        <v>1.523044381168006</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.2878116612037616</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.374335177959097</v>
+        <v>1.372557626439658</v>
       </c>
       <c r="C15">
-        <v>0.1444518719704746</v>
+        <v>0.2207369092606797</v>
       </c>
       <c r="D15">
-        <v>0.1238074836466723</v>
+        <v>0.06772241585727556</v>
       </c>
       <c r="E15">
-        <v>0.02677087459771421</v>
+        <v>0.02717410002746679</v>
       </c>
       <c r="F15">
-        <v>10.71035984366165</v>
+        <v>0.8638972604773443</v>
       </c>
       <c r="G15">
-        <v>0.0008290546343938837</v>
+        <v>0.6232332702424941</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1770068797177373</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.282613033043063</v>
+        <v>0.4719535237675245</v>
       </c>
       <c r="K15">
-        <v>1.374815689830513</v>
+        <v>0.4015248163963747</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.04619228291918631</v>
       </c>
       <c r="M15">
-        <v>0.3244098317747302</v>
+        <v>1.507519947110893</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.2768116137389285</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.280290878940349</v>
+        <v>1.284611909741784</v>
       </c>
       <c r="C16">
-        <v>0.1332541851378011</v>
+        <v>0.2068442186960056</v>
       </c>
       <c r="D16">
-        <v>0.115255204085706</v>
+        <v>0.06407501532191873</v>
       </c>
       <c r="E16">
-        <v>0.02566034056331645</v>
+        <v>0.02645186896951124</v>
       </c>
       <c r="F16">
-        <v>10.13131600367814</v>
+        <v>0.8571319558232346</v>
       </c>
       <c r="G16">
-        <v>0.0008353326091813906</v>
+        <v>0.619721243149769</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1652046037272186</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2683910277296491</v>
+        <v>0.4752003643120588</v>
       </c>
       <c r="K16">
-        <v>1.278624763320948</v>
+        <v>0.4075428664088001</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.04459984403917616</v>
       </c>
       <c r="M16">
-        <v>0.3027942463441633</v>
+        <v>1.411314434139598</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.260759531134596</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.223694452459483</v>
+        <v>1.221653343062087</v>
       </c>
       <c r="C17">
-        <v>0.1265712574226683</v>
+        <v>0.2017170468685663</v>
       </c>
       <c r="D17">
-        <v>0.1100995008136039</v>
+        <v>0.0675187061528959</v>
       </c>
       <c r="E17">
-        <v>0.02500896559782184</v>
+        <v>0.03054530202856931</v>
       </c>
       <c r="F17">
-        <v>9.780730957388585</v>
+        <v>0.9069843999566203</v>
       </c>
       <c r="G17">
-        <v>0.0008391992919364649</v>
+        <v>0.6595940322986706</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1279734281498293</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2597974032308201</v>
+        <v>0.4988981538689217</v>
       </c>
       <c r="K17">
-        <v>1.220822073831613</v>
+        <v>0.4339872462923182</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.04323557157499902</v>
       </c>
       <c r="M17">
-        <v>0.2898394841332177</v>
+        <v>1.349682921087947</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.268521828828213</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.191515557797089</v>
+        <v>1.173267184527447</v>
       </c>
       <c r="C18">
-        <v>0.1227906857085799</v>
+        <v>0.2034963403895347</v>
       </c>
       <c r="D18">
-        <v>0.1071644894747479</v>
+        <v>0.07803291220140096</v>
       </c>
       <c r="E18">
-        <v>0.02464472345156743</v>
+        <v>0.04282909099073784</v>
       </c>
       <c r="F18">
-        <v>9.580651859136594</v>
+        <v>1.016342169318236</v>
       </c>
       <c r="G18">
-        <v>0.0008414299459203812</v>
+        <v>0.7453950908496836</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07521118173328034</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2548992504786014</v>
+        <v>0.5447744377998447</v>
       </c>
       <c r="K18">
-        <v>1.187986723848525</v>
+        <v>0.4837888847376526</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.05011944829644399</v>
       </c>
       <c r="M18">
-        <v>0.2824928526396988</v>
+        <v>1.310690083635649</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.2987889055278572</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.180681915134841</v>
+        <v>1.140606987202574</v>
       </c>
       <c r="C19">
-        <v>0.1215210420458845</v>
+        <v>0.21074234243315</v>
       </c>
       <c r="D19">
-        <v>0.1061756995464975</v>
+        <v>0.09445994787606082</v>
       </c>
       <c r="E19">
-        <v>0.02452313334228329</v>
+        <v>0.06627610248420979</v>
       </c>
       <c r="F19">
-        <v>9.51316545223915</v>
+        <v>1.174354800039978</v>
       </c>
       <c r="G19">
-        <v>0.0008421864381251804</v>
+        <v>0.8688798877999062</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02945147826007855</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2532481748503557</v>
+        <v>0.6083991056981262</v>
       </c>
       <c r="K19">
-        <v>1.176936936592085</v>
+        <v>0.5533336418874981</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.0754533791845482</v>
       </c>
       <c r="M19">
-        <v>0.2800226766669383</v>
+        <v>1.292887486159401</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.3470427355951173</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.229679909975914</v>
+        <v>1.152672305383931</v>
       </c>
       <c r="C20">
-        <v>0.1272760039275198</v>
+        <v>0.2332557406687101</v>
       </c>
       <c r="D20">
-        <v>0.1106451219029267</v>
+        <v>0.1270412821221356</v>
       </c>
       <c r="E20">
-        <v>0.02507721546719921</v>
+        <v>0.1195966823143131</v>
       </c>
       <c r="F20">
-        <v>9.817886054997757</v>
+        <v>1.463082153754073</v>
       </c>
       <c r="G20">
-        <v>0.000838787011413584</v>
+        <v>1.093321279137868</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.00155850921257894</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2607075092882525</v>
+        <v>0.719230067137417</v>
       </c>
       <c r="K20">
-        <v>1.226932002615968</v>
+        <v>0.6751295908697514</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1496967908831905</v>
       </c>
       <c r="M20">
-        <v>0.291207546215837</v>
+        <v>1.33502580101009</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.4446912944595027</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.398979674047439</v>
+        <v>1.297671410658182</v>
       </c>
       <c r="C21">
-        <v>0.1474050863362351</v>
+        <v>0.2644357906452228</v>
       </c>
       <c r="D21">
-        <v>0.1260461474308698</v>
+        <v>0.1451190535089069</v>
       </c>
       <c r="E21">
-        <v>0.02706733284012941</v>
+        <v>0.1381077838156699</v>
       </c>
       <c r="F21">
-        <v>10.86140928763217</v>
+        <v>1.578324958271182</v>
       </c>
       <c r="G21">
-        <v>0.0008274376735249098</v>
+        <v>1.17939499632881</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0002642175844433936</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2863284213033808</v>
+        <v>0.7533353277122075</v>
       </c>
       <c r="K21">
-        <v>1.400051458000974</v>
+        <v>0.7076871018905209</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1730760329067351</v>
       </c>
       <c r="M21">
-        <v>0.3300917117365643</v>
+        <v>1.505507447227586</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.5078395697676399</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.513606646972164</v>
+        <v>1.394418983562872</v>
       </c>
       <c r="C22">
-        <v>0.1612418165362044</v>
+        <v>0.2842647916872636</v>
       </c>
       <c r="D22">
-        <v>0.1364486102145719</v>
+        <v>0.1555429944182976</v>
       </c>
       <c r="E22">
-        <v>0.02847357719276467</v>
+        <v>0.1474450183571356</v>
       </c>
       <c r="F22">
-        <v>11.56042338375767</v>
+        <v>1.641817759438922</v>
       </c>
       <c r="G22">
-        <v>0.0008200571105762258</v>
+        <v>1.226682538252291</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>9.410280026322937E-06</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3035491587752688</v>
+        <v>0.771152630394738</v>
       </c>
       <c r="K22">
-        <v>1.517581574125614</v>
+        <v>0.7239055474812943</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1840996305284364</v>
       </c>
       <c r="M22">
-        <v>0.3566089617222019</v>
+        <v>1.61791535774077</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.5451681406598539</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.452029760694131</v>
+        <v>1.342732774456323</v>
       </c>
       <c r="C23">
-        <v>0.1537883436666192</v>
+        <v>0.2736692294082559</v>
       </c>
       <c r="D23">
-        <v>0.13086231775317</v>
+        <v>0.1499744299438817</v>
       </c>
       <c r="E23">
-        <v>0.02771270091642641</v>
+        <v>0.1424553455653061</v>
       </c>
       <c r="F23">
-        <v>11.18563036329169</v>
+        <v>1.607774131123705</v>
       </c>
       <c r="G23">
-        <v>0.0008239940446785075</v>
+        <v>1.201293949844697</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.0001017058437042806</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2943104801256453</v>
+        <v>0.7615635149441147</v>
       </c>
       <c r="K23">
-        <v>1.454414070300317</v>
+        <v>0.7151611827003705</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1782083785794768</v>
       </c>
       <c r="M23">
-        <v>0.3423460942421173</v>
+        <v>1.55785981575923</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.525227354198023</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.226972772840668</v>
+        <v>1.14799814896071</v>
       </c>
       <c r="C24">
-        <v>0.12695719761102</v>
+        <v>0.233793358843613</v>
       </c>
       <c r="D24">
-        <v>0.1103983567574858</v>
+        <v>0.1289874884426325</v>
       </c>
       <c r="E24">
-        <v>0.02504632793560546</v>
+        <v>0.1236826708390346</v>
       </c>
       <c r="F24">
-        <v>9.801083667330971</v>
+        <v>1.482139003760182</v>
       </c>
       <c r="G24">
-        <v>0.0008389733791924145</v>
+        <v>1.10831034332459</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.001378984994268695</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.260295918985733</v>
+        <v>0.7269376628735102</v>
       </c>
       <c r="K24">
-        <v>1.224168477420704</v>
+        <v>0.6839153566149463</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1560504682421211</v>
       </c>
       <c r="M24">
-        <v>0.2905887318486506</v>
+        <v>1.331654089655615</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.4500668339284033</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9982287441452513</v>
+        <v>0.9396153081467844</v>
       </c>
       <c r="C25">
-        <v>0.1003854737562335</v>
+        <v>0.1911993693905742</v>
       </c>
       <c r="D25">
-        <v>0.0894588296904999</v>
+        <v>0.1065149790095319</v>
       </c>
       <c r="E25">
-        <v>0.02256277339178503</v>
+        <v>0.1036301168326332</v>
       </c>
       <c r="F25">
-        <v>8.366258362696811</v>
+        <v>1.352858501452289</v>
       </c>
       <c r="G25">
-        <v>0.0008553945809942204</v>
+        <v>1.013997951563752</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.004543122797579402</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2252797970474205</v>
+        <v>0.6928447115460727</v>
       </c>
       <c r="K25">
-        <v>0.9912259957243066</v>
+        <v>0.6538054632429819</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1323824372381068</v>
       </c>
       <c r="M25">
-        <v>0.2386859327771944</v>
+        <v>1.08970174210333</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0.3695894568545555</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_38/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7871208915251202</v>
+        <v>0.7721855493653607</v>
       </c>
       <c r="C2">
-        <v>0.1600787996387112</v>
+        <v>0.1994259378892451</v>
       </c>
       <c r="D2">
-        <v>0.0900566609826825</v>
+        <v>0.1061348165924016</v>
       </c>
       <c r="E2">
-        <v>0.08896666137188092</v>
+        <v>0.09413334966383147</v>
       </c>
       <c r="F2">
-        <v>1.262260253046378</v>
+        <v>1.110713804661287</v>
       </c>
       <c r="G2">
-        <v>0.9489574079990177</v>
+        <v>0.7884388924911008</v>
       </c>
       <c r="H2">
-        <v>0.008227672109910239</v>
+        <v>0.006824256609289314</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.6702074150170745</v>
+        <v>0.6002220479352474</v>
       </c>
       <c r="K2">
-        <v>0.6343458177232293</v>
+        <v>0.5138863974776093</v>
       </c>
       <c r="L2">
-        <v>0.1150622951468847</v>
+        <v>0.2294045431074387</v>
       </c>
       <c r="M2">
-        <v>0.9127116402941624</v>
+        <v>0.1596387624498412</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.113736561716884</v>
       </c>
       <c r="O2">
-        <v>0.310668665293008</v>
+        <v>0.9465651479634687</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.3227615547538392</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6841328229732824</v>
+        <v>0.6743675847864381</v>
       </c>
       <c r="C3">
-        <v>0.1390849767253997</v>
+        <v>0.1713198230760469</v>
       </c>
       <c r="D3">
-        <v>0.07893326568201786</v>
+        <v>0.09278380060317915</v>
       </c>
       <c r="E3">
-        <v>0.07906100373643454</v>
+        <v>0.08405756534011743</v>
       </c>
       <c r="F3">
-        <v>1.203369451901665</v>
+        <v>1.068082091047309</v>
       </c>
       <c r="G3">
-        <v>0.9072822334440644</v>
+        <v>0.7653762417077559</v>
       </c>
       <c r="H3">
-        <v>0.01148576527243608</v>
+        <v>0.009560212770428025</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.6562499642352009</v>
+        <v>0.5881909558404743</v>
       </c>
       <c r="K3">
-        <v>0.6226736424518649</v>
+        <v>0.5113381867616589</v>
       </c>
       <c r="L3">
-        <v>0.1033475150674406</v>
+        <v>0.2329766399839279</v>
       </c>
       <c r="M3">
-        <v>0.7932142260854107</v>
+        <v>0.1554317749059244</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1030881206708969</v>
       </c>
       <c r="O3">
-        <v>0.2708653063024116</v>
+        <v>0.8221109973036107</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.2810491139536069</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6210070995759054</v>
+        <v>0.6142357036994497</v>
       </c>
       <c r="C4">
-        <v>0.1262263974735873</v>
+        <v>0.1542115871508543</v>
       </c>
       <c r="D4">
-        <v>0.07211123064440983</v>
+        <v>0.08461971511268018</v>
       </c>
       <c r="E4">
-        <v>0.07298510606090858</v>
+        <v>0.07787495998248772</v>
       </c>
       <c r="F4">
-        <v>1.168338762005746</v>
+        <v>1.042710252004419</v>
       </c>
       <c r="G4">
-        <v>0.8827740724628939</v>
+        <v>0.7521693403917027</v>
       </c>
       <c r="H4">
-        <v>0.01383547153352796</v>
+        <v>0.01153763193119449</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.6483155781982077</v>
+        <v>0.5810375828516072</v>
       </c>
       <c r="K4">
-        <v>0.6162007953615998</v>
+        <v>0.5102256291321723</v>
       </c>
       <c r="L4">
-        <v>0.09615276878691503</v>
+        <v>0.2352416915053084</v>
       </c>
       <c r="M4">
-        <v>0.719982899456781</v>
+        <v>0.1536457147499704</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.09653028366857086</v>
       </c>
       <c r="O4">
-        <v>0.2464646398932828</v>
+        <v>0.7457991112963498</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.2554811611132344</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5953013481884568</v>
+        <v>0.589707478831059</v>
       </c>
       <c r="C5">
-        <v>0.1209922405277695</v>
+        <v>0.1472745722866193</v>
       </c>
       <c r="D5">
-        <v>0.0693321793295425</v>
+        <v>0.08130030134645239</v>
       </c>
       <c r="E5">
-        <v>0.07050938708476906</v>
+        <v>0.07535544541585182</v>
       </c>
       <c r="F5">
-        <v>1.154332151129978</v>
+        <v>1.032561650539662</v>
       </c>
       <c r="G5">
-        <v>0.8730438990523623</v>
+        <v>0.7470138469533651</v>
       </c>
       <c r="H5">
-        <v>0.01487708342848804</v>
+        <v>0.01241517574491902</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.6452354897818537</v>
+        <v>0.5781783429183065</v>
       </c>
       <c r="K5">
-        <v>0.6137300170020907</v>
+        <v>0.5098807795624438</v>
       </c>
       <c r="L5">
-        <v>0.09321855267030799</v>
+        <v>0.2361824855133747</v>
       </c>
       <c r="M5">
-        <v>0.6901649921105104</v>
+        <v>0.1531143868164193</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.0938515850719952</v>
       </c>
       <c r="O5">
-        <v>0.236527682366507</v>
+        <v>0.7147186731053239</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.245070172645601</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5910337913419426</v>
+        <v>0.5856329659362416</v>
       </c>
       <c r="C6">
-        <v>0.1201234035266765</v>
+        <v>0.1461247066184939</v>
       </c>
       <c r="D6">
-        <v>0.06887075205329296</v>
+        <v>0.08074954382419008</v>
       </c>
       <c r="E6">
-        <v>0.07009827449250139</v>
+        <v>0.0749370489595087</v>
       </c>
       <c r="F6">
-        <v>1.15202216376251</v>
+        <v>1.030887666781013</v>
       </c>
       <c r="G6">
-        <v>0.8714433251069806</v>
+        <v>0.7461710762973439</v>
       </c>
       <c r="H6">
-        <v>0.01505501480930438</v>
+        <v>0.01256513537150367</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.6447331123216458</v>
+        <v>0.5777068552693265</v>
       </c>
       <c r="K6">
-        <v>0.613329616405565</v>
+        <v>0.5098299258061267</v>
       </c>
       <c r="L6">
-        <v>0.09273113719452653</v>
+        <v>0.2363397688499589</v>
       </c>
       <c r="M6">
-        <v>0.6852149217037322</v>
+        <v>0.1530379178550412</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.09340636763001697</v>
       </c>
       <c r="O6">
-        <v>0.2348779603129962</v>
+        <v>0.7095585876826078</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.2433418493712196</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6206603594744422</v>
+        <v>0.6140857951614009</v>
       </c>
       <c r="C7">
-        <v>0.1261557870028582</v>
+        <v>0.1537127415786728</v>
       </c>
       <c r="D7">
-        <v>0.07207374864826477</v>
+        <v>0.08486129595764424</v>
       </c>
       <c r="E7">
-        <v>0.07295171828160463</v>
+        <v>0.07790091246214104</v>
       </c>
       <c r="F7">
-        <v>1.16814879551184</v>
+        <v>1.040281924793256</v>
       </c>
       <c r="G7">
-        <v>0.8826418257651767</v>
+        <v>0.7547218976832397</v>
       </c>
       <c r="H7">
-        <v>0.01384918342479485</v>
+        <v>0.01155916052796557</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.6482734270537946</v>
+        <v>0.5747226421537164</v>
       </c>
       <c r="K7">
-        <v>0.6161668072688542</v>
+        <v>0.5090559804233408</v>
       </c>
       <c r="L7">
-        <v>0.09611320860457084</v>
+        <v>0.2347324822989911</v>
       </c>
       <c r="M7">
-        <v>0.7195806796695621</v>
+        <v>0.1532858917598077</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.09642570808454565</v>
       </c>
       <c r="O7">
-        <v>0.2463306043882767</v>
+        <v>0.74504142129868</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.2553678474054095</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7515822935805545</v>
+        <v>0.7390730833664065</v>
       </c>
       <c r="C8">
-        <v>0.1528322050905189</v>
+        <v>0.1883302140119412</v>
       </c>
       <c r="D8">
-        <v>0.08621909496135061</v>
+        <v>0.1024909924231849</v>
       </c>
       <c r="E8">
-        <v>0.08554909358069196</v>
+        <v>0.09086059669391844</v>
       </c>
       <c r="F8">
-        <v>1.241711164826341</v>
+        <v>1.088298769854603</v>
       </c>
       <c r="G8">
-        <v>0.9343545130315221</v>
+        <v>0.7890606689700519</v>
       </c>
       <c r="H8">
-        <v>0.009276291308748894</v>
+        <v>0.007729135646130647</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.6652589192887035</v>
+        <v>0.5755522327142444</v>
       </c>
       <c r="K8">
-        <v>0.6301725844151633</v>
+        <v>0.5091210727991644</v>
       </c>
       <c r="L8">
-        <v>0.1110222826978173</v>
+        <v>0.2290312007851867</v>
       </c>
       <c r="M8">
-        <v>0.871472970833878</v>
+        <v>0.1567655114747737</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1098423564451281</v>
       </c>
       <c r="O8">
-        <v>0.2969344107819794</v>
+        <v>0.902483171927571</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.3084572363886053</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.009632162489282</v>
+        <v>0.9832504388841414</v>
       </c>
       <c r="C9">
-        <v>0.2055022212293522</v>
+        <v>0.2589990491333651</v>
       </c>
       <c r="D9">
-        <v>0.1140677664855616</v>
+        <v>0.1363308530118843</v>
       </c>
       <c r="E9">
-        <v>0.1103647873089493</v>
+        <v>0.1161383732061587</v>
       </c>
       <c r="F9">
-        <v>1.395644268617929</v>
+        <v>1.197708883004381</v>
       </c>
       <c r="G9">
-        <v>1.045035811214959</v>
+        <v>0.8550053677106746</v>
       </c>
       <c r="H9">
-        <v>0.003255150071673651</v>
+        <v>0.002685882043207521</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.7039245771382099</v>
+        <v>0.6015496454003113</v>
       </c>
       <c r="K9">
-        <v>0.6635026717915125</v>
+        <v>0.5173071115386492</v>
       </c>
       <c r="L9">
-        <v>0.1403324963066197</v>
+        <v>0.2203395653358733</v>
       </c>
       <c r="M9">
-        <v>1.17098561281415</v>
+        <v>0.1713670821510256</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1363101773989328</v>
       </c>
       <c r="O9">
-        <v>0.3966351435932651</v>
+        <v>1.213704798495939</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.412951505104374</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.203616750316797</v>
+        <v>1.167544802681334</v>
       </c>
       <c r="C10">
-        <v>0.2432509513913743</v>
+        <v>0.3069253628080162</v>
       </c>
       <c r="D10">
-        <v>0.1318316846683558</v>
+        <v>0.1597907141531323</v>
       </c>
       <c r="E10">
-        <v>0.1232140273737201</v>
+        <v>0.1294799474175008</v>
       </c>
       <c r="F10">
-        <v>1.489280437891892</v>
+        <v>1.248790281897882</v>
       </c>
       <c r="G10">
-        <v>1.112359257665901</v>
+        <v>0.9092599833796271</v>
       </c>
       <c r="H10">
-        <v>0.001159303841390624</v>
+        <v>0.0009916287025539816</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.7256453727622585</v>
+        <v>0.5802771636290061</v>
       </c>
       <c r="K10">
-        <v>0.6803545075072037</v>
+        <v>0.5116025515178819</v>
       </c>
       <c r="L10">
-        <v>0.1535395389078005</v>
+        <v>0.2092132713840797</v>
       </c>
       <c r="M10">
-        <v>1.393601263297995</v>
+        <v>0.1806137790679152</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1472689084324941</v>
       </c>
       <c r="O10">
-        <v>0.4622987610909846</v>
+        <v>1.441849455320749</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.4818620872287269</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.318642227835824</v>
+        <v>1.285218321260004</v>
       </c>
       <c r="C11">
-        <v>0.2489313385862317</v>
+        <v>0.3031350757119355</v>
       </c>
       <c r="D11">
-        <v>0.1161123025376156</v>
+        <v>0.1443637159576383</v>
       </c>
       <c r="E11">
-        <v>0.08629205580190558</v>
+        <v>0.09169749299827501</v>
       </c>
       <c r="F11">
-        <v>1.311846777341486</v>
+        <v>1.075397479001722</v>
       </c>
       <c r="G11">
-        <v>0.9714489019957853</v>
+        <v>0.8265224706741208</v>
       </c>
       <c r="H11">
-        <v>0.01968010119149</v>
+        <v>0.01956644265026242</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.649013402194484</v>
+        <v>0.4620022623827538</v>
       </c>
       <c r="K11">
-        <v>0.5915562064022453</v>
+        <v>0.4341661461965742</v>
       </c>
       <c r="L11">
-        <v>0.09820605818088524</v>
+        <v>0.1783908810740229</v>
       </c>
       <c r="M11">
-        <v>1.502232764918347</v>
+        <v>0.1547662565959484</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.09348718807720147</v>
       </c>
       <c r="O11">
-        <v>0.4232714128022295</v>
+        <v>1.544029750310642</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.4410943604287851</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.375970748875119</v>
+        <v>1.346571370635417</v>
       </c>
       <c r="C12">
-        <v>0.2456083664378355</v>
+        <v>0.2912843186509519</v>
       </c>
       <c r="D12">
-        <v>0.1001199933784989</v>
+        <v>0.126240666249771</v>
       </c>
       <c r="E12">
-        <v>0.05962304547580111</v>
+        <v>0.06392047388655442</v>
       </c>
       <c r="F12">
-        <v>1.151580717942991</v>
+        <v>0.9358741888036946</v>
       </c>
       <c r="G12">
-        <v>0.8457965281688757</v>
+        <v>0.7385407136512754</v>
       </c>
       <c r="H12">
-        <v>0.05850361785891778</v>
+        <v>0.05839004571856776</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.5831815462870651</v>
+        <v>0.3968756462826448</v>
       </c>
       <c r="K12">
-        <v>0.5183188508029701</v>
+        <v>0.3789346320460716</v>
       </c>
       <c r="L12">
-        <v>0.06557240625147287</v>
+        <v>0.158468060251991</v>
       </c>
       <c r="M12">
-        <v>1.547269331786566</v>
+        <v>0.1337887709530392</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.06279760970501336</v>
       </c>
       <c r="O12">
-        <v>0.3782825968905357</v>
+        <v>1.583509096932289</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.3939588346442235</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.391581668096023</v>
+        <v>1.366883338766712</v>
       </c>
       <c r="C13">
-        <v>0.2351901957951696</v>
+        <v>0.2736082753515348</v>
       </c>
       <c r="D13">
-        <v>0.08310219588801004</v>
+        <v>0.1047799767084427</v>
       </c>
       <c r="E13">
-        <v>0.03938366177301056</v>
+        <v>0.04242416298287921</v>
       </c>
       <c r="F13">
-        <v>0.9952767637521021</v>
+        <v>0.8159565514251454</v>
       </c>
       <c r="G13">
-        <v>0.7244069288548758</v>
+        <v>0.6370560100170053</v>
       </c>
       <c r="H13">
-        <v>0.1146102652857479</v>
+        <v>0.114444446701242</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.5216498753863448</v>
+        <v>0.3672576234342841</v>
       </c>
       <c r="K13">
-        <v>0.4525045231598028</v>
+        <v>0.3375552838773537</v>
       </c>
       <c r="L13">
-        <v>0.04845402864222237</v>
+        <v>0.1448513056840639</v>
       </c>
       <c r="M13">
-        <v>1.545469828766045</v>
+        <v>0.1160951473478811</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.0478109405296312</v>
       </c>
       <c r="O13">
-        <v>0.3264895535149535</v>
+        <v>1.577591662942098</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.3395585423606065</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.383618033669705</v>
+        <v>1.362484382059705</v>
       </c>
       <c r="C14">
-        <v>0.2247535422230413</v>
+        <v>0.2586086682346149</v>
       </c>
       <c r="D14">
-        <v>0.07098980671300836</v>
+        <v>0.08882298393509558</v>
       </c>
       <c r="E14">
-        <v>0.02919682035708338</v>
+        <v>0.03142949596140099</v>
       </c>
       <c r="F14">
-        <v>0.8897811958121693</v>
+        <v>0.7407022436198076</v>
       </c>
       <c r="G14">
-        <v>0.6430114895848362</v>
+        <v>0.5631251295142334</v>
       </c>
       <c r="H14">
-        <v>0.1643242420547324</v>
+        <v>0.1640888987859057</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4812732327771272</v>
+        <v>0.3586464768761886</v>
       </c>
       <c r="K14">
-        <v>0.4107611507734816</v>
+        <v>0.314443914538856</v>
       </c>
       <c r="L14">
-        <v>0.04574769896230624</v>
+        <v>0.1377388935252633</v>
       </c>
       <c r="M14">
-        <v>1.523044381168006</v>
+        <v>0.1053349609201781</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.04647868420502554</v>
       </c>
       <c r="O14">
-        <v>0.2878116612037616</v>
+        <v>1.552887570398752</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2988981889550857</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.372557626439658</v>
+        <v>1.352411538038666</v>
       </c>
       <c r="C15">
-        <v>0.2207369092606797</v>
+        <v>0.2536438786803785</v>
       </c>
       <c r="D15">
-        <v>0.06772241585727556</v>
+        <v>0.08427519201881495</v>
       </c>
       <c r="E15">
-        <v>0.02717410002746679</v>
+        <v>0.02923082994269599</v>
       </c>
       <c r="F15">
-        <v>0.8638972604773443</v>
+        <v>0.7245462890772743</v>
       </c>
       <c r="G15">
-        <v>0.6232332702424941</v>
+        <v>0.5430295401752971</v>
       </c>
       <c r="H15">
-        <v>0.1770068797177373</v>
+        <v>0.1767362286139473</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4719535237675245</v>
+        <v>0.3612426640954638</v>
       </c>
       <c r="K15">
-        <v>0.4015248163963747</v>
+        <v>0.3106648079067824</v>
       </c>
       <c r="L15">
-        <v>0.04619228291918631</v>
+        <v>0.1367964294688466</v>
       </c>
       <c r="M15">
-        <v>1.507519947110893</v>
+        <v>0.1031528184126493</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.0472538532619371</v>
       </c>
       <c r="O15">
-        <v>0.2768116137389285</v>
+        <v>1.537075568109174</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2873193508547516</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.284611909741784</v>
+        <v>1.265788328611677</v>
       </c>
       <c r="C16">
-        <v>0.2068442186960056</v>
+        <v>0.2406794079558239</v>
       </c>
       <c r="D16">
-        <v>0.06407501532191873</v>
+        <v>0.07744709650700088</v>
       </c>
       <c r="E16">
-        <v>0.02645186896951124</v>
+        <v>0.02855304391719748</v>
       </c>
       <c r="F16">
-        <v>0.8571319558232346</v>
+        <v>0.7401789480171672</v>
       </c>
       <c r="G16">
-        <v>0.619721243149769</v>
+        <v>0.5229726371578067</v>
       </c>
       <c r="H16">
-        <v>0.1652046037272186</v>
+        <v>0.1647405014697512</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.4752003643120588</v>
+        <v>0.4046166501881245</v>
       </c>
       <c r="K16">
-        <v>0.4075428664088001</v>
+        <v>0.3260982098069967</v>
       </c>
       <c r="L16">
-        <v>0.04459984403917616</v>
+        <v>0.1438582311282257</v>
       </c>
       <c r="M16">
-        <v>1.411314434139598</v>
+        <v>0.1062472206727136</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.04594885523601455</v>
       </c>
       <c r="O16">
-        <v>0.260759531134596</v>
+        <v>1.442893047633618</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.270310979120012</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.221653343062087</v>
+        <v>1.202294542857544</v>
       </c>
       <c r="C17">
-        <v>0.2017170468685663</v>
+        <v>0.2380779919812568</v>
       </c>
       <c r="D17">
-        <v>0.0675187061528959</v>
+        <v>0.08057487709474032</v>
       </c>
       <c r="E17">
-        <v>0.03054530202856931</v>
+        <v>0.03299008681113413</v>
       </c>
       <c r="F17">
-        <v>0.9069843999566203</v>
+        <v>0.7907413244915418</v>
       </c>
       <c r="G17">
-        <v>0.6595940322986706</v>
+        <v>0.5480029811548235</v>
       </c>
       <c r="H17">
-        <v>0.1279734281498293</v>
+        <v>0.1273945607268132</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.4988981538689217</v>
+        <v>0.4418876913630925</v>
       </c>
       <c r="K17">
-        <v>0.4339872462923182</v>
+        <v>0.3500308314244904</v>
       </c>
       <c r="L17">
-        <v>0.04323557157499902</v>
+        <v>0.1534849709427313</v>
       </c>
       <c r="M17">
-        <v>1.349682921087947</v>
+        <v>0.1138661029180099</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.04426676814306996</v>
       </c>
       <c r="O17">
-        <v>0.268521828828213</v>
+        <v>1.383381095066966</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2783849702942902</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.173267184527447</v>
+        <v>1.151405998313038</v>
       </c>
       <c r="C18">
-        <v>0.2034963403895347</v>
+        <v>0.2450014621506682</v>
       </c>
       <c r="D18">
-        <v>0.07803291220140096</v>
+        <v>0.09273247618657621</v>
       </c>
       <c r="E18">
-        <v>0.04282909099073784</v>
+        <v>0.04591574410961918</v>
       </c>
       <c r="F18">
-        <v>1.016342169318236</v>
+        <v>0.8850992768436043</v>
       </c>
       <c r="G18">
-        <v>0.7453950908496836</v>
+        <v>0.6123344965732969</v>
       </c>
       <c r="H18">
-        <v>0.07521118173328034</v>
+        <v>0.07460921468744885</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.5447744377998447</v>
+        <v>0.4864302208735722</v>
       </c>
       <c r="K18">
-        <v>0.4837888847376526</v>
+        <v>0.3876742789656511</v>
       </c>
       <c r="L18">
-        <v>0.05011944829644399</v>
+        <v>0.167868330228103</v>
       </c>
       <c r="M18">
-        <v>1.310690083635649</v>
+        <v>0.1274078260945046</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.05019487558699431</v>
       </c>
       <c r="O18">
-        <v>0.2987889055278572</v>
+        <v>1.347652450871379</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.3101081701839448</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.140606987202574</v>
+        <v>1.114776964381974</v>
       </c>
       <c r="C19">
-        <v>0.21074234243315</v>
+        <v>0.2596134031888653</v>
       </c>
       <c r="D19">
-        <v>0.09445994787606082</v>
+        <v>0.1122909297380374</v>
       </c>
       <c r="E19">
-        <v>0.06627610248420979</v>
+        <v>0.07029640575364127</v>
       </c>
       <c r="F19">
-        <v>1.174354800039978</v>
+        <v>1.015982414323105</v>
       </c>
       <c r="G19">
-        <v>0.8688798877999062</v>
+        <v>0.7069725213278844</v>
       </c>
       <c r="H19">
-        <v>0.02945147826007855</v>
+        <v>0.02892224664375931</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.6083991056981262</v>
+        <v>0.5388944330918548</v>
       </c>
       <c r="K19">
-        <v>0.5533336418874981</v>
+        <v>0.437262538284088</v>
       </c>
       <c r="L19">
-        <v>0.0754533791845482</v>
+        <v>0.1863154613073696</v>
       </c>
       <c r="M19">
-        <v>1.292887486159401</v>
+        <v>0.1461403457469252</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.0738848281950979</v>
       </c>
       <c r="O19">
-        <v>0.3470427355951173</v>
+        <v>1.334054697389035</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.3607391962792832</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.152672305383931</v>
+        <v>1.118588749765308</v>
       </c>
       <c r="C20">
-        <v>0.2332557406687101</v>
+        <v>0.2957224411657364</v>
       </c>
       <c r="D20">
-        <v>0.1270412821221356</v>
+        <v>0.1523928258213942</v>
       </c>
       <c r="E20">
-        <v>0.1195966823143131</v>
+        <v>0.1255055007869537</v>
       </c>
       <c r="F20">
-        <v>1.463082153754073</v>
+        <v>1.242043222475061</v>
       </c>
       <c r="G20">
-        <v>1.093321279137868</v>
+        <v>0.8842079707751367</v>
       </c>
       <c r="H20">
-        <v>0.00155850921257894</v>
+        <v>0.001299728028999692</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.719230067137417</v>
+        <v>0.6061650728940151</v>
       </c>
       <c r="K20">
-        <v>0.6751295908697514</v>
+        <v>0.5164160887249736</v>
       </c>
       <c r="L20">
-        <v>0.1496967908831905</v>
+        <v>0.2133105245938829</v>
       </c>
       <c r="M20">
-        <v>1.33502580101009</v>
+        <v>0.1793276425546431</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.1442727730916289</v>
       </c>
       <c r="O20">
-        <v>0.4446912944595027</v>
+        <v>1.383129701552889</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.4632965519343699</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.297671410658182</v>
+        <v>1.258370140581945</v>
       </c>
       <c r="C21">
-        <v>0.2644357906452228</v>
+        <v>0.3284119435404023</v>
       </c>
       <c r="D21">
-        <v>0.1451190535089069</v>
+        <v>0.1817195009966639</v>
       </c>
       <c r="E21">
-        <v>0.1381077838156699</v>
+        <v>0.1459064377320765</v>
       </c>
       <c r="F21">
-        <v>1.578324958271182</v>
+        <v>1.273854158160304</v>
       </c>
       <c r="G21">
-        <v>1.17939499632881</v>
+        <v>1.006173372639594</v>
       </c>
       <c r="H21">
-        <v>0.0002642175844433936</v>
+        <v>0.0002323988218684292</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.7533353277122075</v>
+        <v>0.5006581469928193</v>
       </c>
       <c r="K21">
-        <v>0.7076871018905209</v>
+        <v>0.5050652059535281</v>
       </c>
       <c r="L21">
-        <v>0.1730760329067351</v>
+        <v>0.2024370575159331</v>
       </c>
       <c r="M21">
-        <v>1.505507447227586</v>
+        <v>0.1843595118002135</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.1640429446760621</v>
       </c>
       <c r="O21">
-        <v>0.5078395697676399</v>
+        <v>1.551658764153075</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.5300415622325616</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.394418983562872</v>
+        <v>1.352127669735751</v>
       </c>
       <c r="C22">
-        <v>0.2842647916872636</v>
+        <v>0.3479405837715603</v>
       </c>
       <c r="D22">
-        <v>0.1555429944182976</v>
+        <v>0.1999590758682217</v>
       </c>
       <c r="E22">
-        <v>0.1474450183571356</v>
+        <v>0.1565366150340957</v>
       </c>
       <c r="F22">
-        <v>1.641817759438922</v>
+        <v>1.2815064014613</v>
       </c>
       <c r="G22">
-        <v>1.226682538252291</v>
+        <v>1.086505030677586</v>
       </c>
       <c r="H22">
-        <v>9.410280026322937E-06</v>
+        <v>1.354635577577312E-05</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.771152630394738</v>
+        <v>0.43221903332784</v>
       </c>
       <c r="K22">
-        <v>0.7239055474812943</v>
+        <v>0.4927754436168215</v>
       </c>
       <c r="L22">
-        <v>0.1840996305284364</v>
+        <v>0.1938676887669253</v>
       </c>
       <c r="M22">
-        <v>1.61791535774077</v>
+        <v>0.1859230565218368</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.172749115628271</v>
       </c>
       <c r="O22">
-        <v>0.5451681406598539</v>
+        <v>1.661669182099075</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.569548889535568</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.342732774456323</v>
+        <v>1.301542912003612</v>
       </c>
       <c r="C23">
-        <v>0.2736692294082559</v>
+        <v>0.33866408025591</v>
       </c>
       <c r="D23">
-        <v>0.1499744299438817</v>
+        <v>0.1893422274138601</v>
       </c>
       <c r="E23">
-        <v>0.1424553455653061</v>
+        <v>0.1506726103989031</v>
       </c>
       <c r="F23">
-        <v>1.607774131123705</v>
+        <v>1.283178014483497</v>
       </c>
       <c r="G23">
-        <v>1.201293949844697</v>
+        <v>1.035401827221449</v>
       </c>
       <c r="H23">
-        <v>0.0001017058437042806</v>
+        <v>9.518778286699003E-05</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.7615635149441147</v>
+        <v>0.4798871465229837</v>
       </c>
       <c r="K23">
-        <v>0.7151611827003705</v>
+        <v>0.502061880662005</v>
       </c>
       <c r="L23">
-        <v>0.1782083785794768</v>
+        <v>0.1993355330269786</v>
       </c>
       <c r="M23">
-        <v>1.55785981575923</v>
+        <v>0.1862007546344984</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.1682743693883282</v>
       </c>
       <c r="O23">
-        <v>0.525227354198023</v>
+        <v>1.603883720832641</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.5483752887276694</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.14799814896071</v>
+        <v>1.113566784395402</v>
       </c>
       <c r="C24">
-        <v>0.233793358843613</v>
+        <v>0.2970630751783858</v>
       </c>
       <c r="D24">
-        <v>0.1289874884426325</v>
+        <v>0.1546754964631134</v>
       </c>
       <c r="E24">
-        <v>0.1236826708390346</v>
+        <v>0.1297122880202188</v>
       </c>
       <c r="F24">
-        <v>1.482139003760182</v>
+        <v>1.25808851190375</v>
       </c>
       <c r="G24">
-        <v>1.10831034332459</v>
+        <v>0.8953513368982868</v>
       </c>
       <c r="H24">
-        <v>0.001378984994268695</v>
+        <v>0.00112698619785756</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.7269376628735102</v>
+        <v>0.6132404200659636</v>
       </c>
       <c r="K24">
-        <v>0.6839153566149463</v>
+        <v>0.5228487487285349</v>
       </c>
       <c r="L24">
-        <v>0.1560504682421211</v>
+        <v>0.2157577391769827</v>
       </c>
       <c r="M24">
-        <v>1.331654089655615</v>
+        <v>0.1816889054262525</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1503943063100976</v>
       </c>
       <c r="O24">
-        <v>0.4500668339284033</v>
+        <v>1.380173150638512</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.4689392191606885</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9396153081467844</v>
+        <v>0.9169152565197862</v>
       </c>
       <c r="C25">
-        <v>0.1911993693905742</v>
+        <v>0.2403222472344027</v>
       </c>
       <c r="D25">
-        <v>0.1065149790095319</v>
+        <v>0.1267131390565055</v>
       </c>
       <c r="E25">
-        <v>0.1036301168326332</v>
+        <v>0.1091948118481625</v>
       </c>
       <c r="F25">
-        <v>1.352858501452289</v>
+        <v>1.170495908987135</v>
       </c>
       <c r="G25">
-        <v>1.013997951563752</v>
+        <v>0.8323917499504176</v>
       </c>
       <c r="H25">
-        <v>0.004543122797579402</v>
+        <v>0.00375436700840881</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.6928447115460727</v>
+        <v>0.6029155642656434</v>
       </c>
       <c r="K25">
-        <v>0.6538054632429819</v>
+        <v>0.5162381401689942</v>
       </c>
       <c r="L25">
-        <v>0.1323824372381068</v>
+        <v>0.2232419619174273</v>
       </c>
       <c r="M25">
-        <v>1.08970174210333</v>
+        <v>0.1672719085528911</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1292463328482114</v>
       </c>
       <c r="O25">
-        <v>0.3695894568545555</v>
+        <v>1.1298122035044</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0.3845724986041006</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
